--- a/attendance_app/media/attendance_excel/출석부_강의_강의1_분반_테스트분반.xlsx
+++ b/attendance_app/media/attendance_excel/출석부_강의_강의1_분반_테스트분반.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,41 +457,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>테스트</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>입실시간 없음</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>퇴실시간 없음</t>
-        </is>
+          <t>가학생</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>결석</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>지각</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>테스트분반</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>강의1</t>
         </is>
@@ -500,41 +485,86 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>나학생</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>결석</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>테스트분반</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>강의1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>결석</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>테스트분반</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>강의1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>학생1</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.5679861111111111</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.5681481481481482</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>출석</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>입실시간 없음</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>퇴실시간 없음</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>결석</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>테스트분반</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>강의1</t>
         </is>

--- a/attendance_app/media/attendance_excel/출석부_강의_강의1_분반_테스트분반.xlsx
+++ b/attendance_app/media/attendance_excel/출석부_강의_강의1_분반_테스트분반.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>퇴실시간</t>
+          <t>설문조사 제출 시간 (퇴실)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -488,19 +488,15 @@
           <t>나학생</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.7348728254166667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>결석</t>
+          <t>출석</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
